--- a/Modulo4_Web_MisionTIC2022_Main/Semana_1/01_SCRUM_Artefacts/02_Historia_Usuario.xlsx
+++ b/Modulo4_Web_MisionTIC2022_Main/Semana_1/01_SCRUM_Artefacts/02_Historia_Usuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\UTP\03_MISIONTIC_2022\MisionTIC2022_2\Modulo4_Web_MisionTIC2022_Main\Semana_1\01_SCRUM_Artefacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB575B72-4FFD-4D9F-9BBF-458B2DCA2E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB3000-B23F-4201-B563-467828BA09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de usuario" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,13 +143,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -161,6 +164,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,7 +398,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F22"/>
+      <selection activeCell="B15" sqref="B15:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -392,427 +407,418 @@
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>44256</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>3</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>2</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="9">
         <v>44256</v>
       </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>3</v>
       </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <v>2</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:F34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:F39"/>
+  <mergeCells count="35">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
@@ -823,15 +829,23 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="B15:F19"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:F34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:F39"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
